--- a/POMFramework_Sarathi/Database/StateCustom.xlsx
+++ b/POMFramework_Sarathi/Database/StateCustom.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="380">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5928" uniqueCount="382">
   <si>
     <t>st_code</t>
   </si>
@@ -629,6 +629,24 @@
     <t>Gujarat</t>
   </si>
   <si>
+    <t>2012-01-01</t>
+  </si>
+  <si>
+    <t>20144039</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>210</t>
+  </si>
+  <si>
+    <t>2020-12-24</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
     <t>BR</t>
   </si>
   <si>
@@ -650,24 +668,6 @@
     <t>Bihar</t>
   </si>
   <si>
-    <t>2012-01-01</t>
-  </si>
-  <si>
-    <t>20144039</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>210</t>
-  </si>
-  <si>
-    <t>2020-12-24</t>
-  </si>
-  <si>
-    <t>Delhi</t>
-  </si>
-  <si>
     <t>DD</t>
   </si>
   <si>
@@ -752,33 +752,36 @@
     <t>Himachal Pradesh</t>
   </si>
   <si>
+    <t>AS</t>
+  </si>
+  <si>
+    <t>2003-01-01</t>
+  </si>
+  <si>
+    <t>2287</t>
+  </si>
+  <si>
+    <t>2021-02-02</t>
+  </si>
+  <si>
+    <t>Assam</t>
+  </si>
+  <si>
     <t>MH</t>
   </si>
   <si>
     <t>1987-07-01</t>
   </si>
   <si>
-    <t>2279</t>
+    <t>20144021</t>
+  </si>
+  <si>
+    <t>2021-02-11</t>
   </si>
   <si>
     <t>Maharashtra</t>
   </si>
   <si>
-    <t>AS</t>
-  </si>
-  <si>
-    <t>2003-01-01</t>
-  </si>
-  <si>
-    <t>2287</t>
-  </si>
-  <si>
-    <t>2021-02-02</t>
-  </si>
-  <si>
-    <t>Assam</t>
-  </si>
-  <si>
     <t>DN</t>
   </si>
   <si>
@@ -944,6 +947,153 @@
     <t>Telangana</t>
   </si>
   <si>
+    <t>JK</t>
+  </si>
+  <si>
+    <t>2313</t>
+  </si>
+  <si>
+    <t>2020-08-29</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>MZ</t>
+  </si>
+  <si>
+    <t>1910-01-01</t>
+  </si>
+  <si>
+    <t>2290</t>
+  </si>
+  <si>
+    <t>2018-10-01</t>
+  </si>
+  <si>
+    <t>Mizoram</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2285</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>2019-02-13</t>
+  </si>
+  <si>
+    <t>Arunachal Pradesh</t>
+  </si>
+  <si>
+    <t>TR</t>
+  </si>
+  <si>
+    <t>2015-08-27</t>
+  </si>
+  <si>
+    <t>3608</t>
+  </si>
+  <si>
+    <t>2018-05-08</t>
+  </si>
+  <si>
+    <t>Tripura</t>
+  </si>
+  <si>
+    <t>SK</t>
+  </si>
+  <si>
+    <t>2015-07-27</t>
+  </si>
+  <si>
+    <t>2295</t>
+  </si>
+  <si>
+    <t>2020-01-30</t>
+  </si>
+  <si>
+    <t>Sikkim</t>
+  </si>
+  <si>
+    <t>PY</t>
+  </si>
+  <si>
+    <t>2015-07-16</t>
+  </si>
+  <si>
+    <t>2293</t>
+  </si>
+  <si>
+    <t>2018-06-20</t>
+  </si>
+  <si>
+    <t>Pondicherry</t>
+  </si>
+  <si>
+    <t>MN</t>
+  </si>
+  <si>
+    <t>2015-06-27</t>
+  </si>
+  <si>
+    <t>2281</t>
+  </si>
+  <si>
+    <t>2019-10-16</t>
+  </si>
+  <si>
+    <t>Manipur</t>
+  </si>
+  <si>
+    <t>CG</t>
+  </si>
+  <si>
+    <t>2014-10-26</t>
+  </si>
+  <si>
+    <t>2262</t>
+  </si>
+  <si>
+    <t>2019-02-14</t>
+  </si>
+  <si>
+    <t>Chhattisgarh</t>
+  </si>
+  <si>
+    <t>AN</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2574</t>
+  </si>
+  <si>
+    <t>2020-03-06</t>
+  </si>
+  <si>
+    <t>Andaman and Nicobar</t>
+  </si>
+  <si>
+    <t>MP</t>
+  </si>
+  <si>
+    <t>20143841</t>
+  </si>
+  <si>
+    <t>2021-01-30</t>
+  </si>
+  <si>
+    <t>Madhya Pradesh</t>
+  </si>
+  <si>
     <t>CH</t>
   </si>
   <si>
@@ -953,154 +1103,10 @@
     <t>900</t>
   </si>
   <si>
+    <t>10000</t>
+  </si>
+  <si>
     <t>Chandigarh</t>
-  </si>
-  <si>
-    <t>JK</t>
-  </si>
-  <si>
-    <t>2313</t>
-  </si>
-  <si>
-    <t>2020-08-29</t>
-  </si>
-  <si>
-    <t>Jammu and Kashmir</t>
-  </si>
-  <si>
-    <t>MZ</t>
-  </si>
-  <si>
-    <t>1910-01-01</t>
-  </si>
-  <si>
-    <t>2290</t>
-  </si>
-  <si>
-    <t>2018-10-01</t>
-  </si>
-  <si>
-    <t>Mizoram</t>
-  </si>
-  <si>
-    <t>AR</t>
-  </si>
-  <si>
-    <t>2015-06-30</t>
-  </si>
-  <si>
-    <t>2285</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>2019-02-13</t>
-  </si>
-  <si>
-    <t>Arunachal Pradesh</t>
-  </si>
-  <si>
-    <t>TR</t>
-  </si>
-  <si>
-    <t>2015-08-27</t>
-  </si>
-  <si>
-    <t>3608</t>
-  </si>
-  <si>
-    <t>2018-05-08</t>
-  </si>
-  <si>
-    <t>Tripura</t>
-  </si>
-  <si>
-    <t>SK</t>
-  </si>
-  <si>
-    <t>2015-07-27</t>
-  </si>
-  <si>
-    <t>2295</t>
-  </si>
-  <si>
-    <t>2020-01-30</t>
-  </si>
-  <si>
-    <t>Sikkim</t>
-  </si>
-  <si>
-    <t>PY</t>
-  </si>
-  <si>
-    <t>2015-07-16</t>
-  </si>
-  <si>
-    <t>2293</t>
-  </si>
-  <si>
-    <t>2018-06-20</t>
-  </si>
-  <si>
-    <t>Pondicherry</t>
-  </si>
-  <si>
-    <t>MN</t>
-  </si>
-  <si>
-    <t>2015-06-27</t>
-  </si>
-  <si>
-    <t>2281</t>
-  </si>
-  <si>
-    <t>2019-10-16</t>
-  </si>
-  <si>
-    <t>Manipur</t>
-  </si>
-  <si>
-    <t>CG</t>
-  </si>
-  <si>
-    <t>2014-10-26</t>
-  </si>
-  <si>
-    <t>2262</t>
-  </si>
-  <si>
-    <t>2019-02-14</t>
-  </si>
-  <si>
-    <t>Chhattisgarh</t>
-  </si>
-  <si>
-    <t>AN</t>
-  </si>
-  <si>
-    <t>2015-03-31</t>
-  </si>
-  <si>
-    <t>2574</t>
-  </si>
-  <si>
-    <t>2020-03-06</t>
-  </si>
-  <si>
-    <t>Andaman and Nicobar</t>
-  </si>
-  <si>
-    <t>MP</t>
-  </si>
-  <si>
-    <t>20143841</t>
-  </si>
-  <si>
-    <t>2021-01-30</t>
-  </si>
-  <si>
-    <t>Madhya Pradesh</t>
   </si>
   <si>
     <t>HR</t>
@@ -3084,28 +3090,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B5" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" t="s">
         <v>205</v>
       </c>
-      <c r="B5" t="s">
-        <v>162</v>
-      </c>
-      <c r="C5" t="s">
-        <v>206</v>
-      </c>
       <c r="D5" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="F5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G5" t="s">
         <v>161</v>
       </c>
       <c r="H5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
         <v>161</v>
@@ -3135,7 +3141,7 @@
         <v>161</v>
       </c>
       <c r="R5" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="S5" t="s">
         <v>165</v>
@@ -3144,10 +3150,10 @@
         <v>161</v>
       </c>
       <c r="U5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="V5" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="W5" t="s">
         <v>163</v>
@@ -3165,7 +3171,7 @@
         <v>163</v>
       </c>
       <c r="AB5" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AC5" t="s">
         <v>169</v>
@@ -3192,7 +3198,7 @@
         <v>166</v>
       </c>
       <c r="AK5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AL5" t="s">
         <v>171</v>
@@ -3204,16 +3210,16 @@
         <v>180</v>
       </c>
       <c r="AO5" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AP5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AQ5" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AR5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AS5" t="s">
         <v>161</v>
@@ -3222,7 +3228,7 @@
         <v>171</v>
       </c>
       <c r="AU5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AV5" t="s">
         <v>164</v>
@@ -3240,10 +3246,10 @@
         <v>166</v>
       </c>
       <c r="BA5" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="BB5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BC5" t="s">
         <v>166</v>
@@ -3276,7 +3282,7 @@
         <v>171</v>
       </c>
       <c r="BM5" t="s">
-        <v>161</v>
+        <v>188</v>
       </c>
       <c r="BN5" t="s">
         <v>166</v>
@@ -3294,16 +3300,16 @@
         <v>171</v>
       </c>
       <c r="BS5" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BT5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BU5" t="s">
         <v>161</v>
       </c>
       <c r="BV5" t="s">
-        <v>209</v>
+        <v>173</v>
       </c>
       <c r="BW5" t="s">
         <v>166</v>
@@ -3312,13 +3318,13 @@
         <v>166</v>
       </c>
       <c r="BY5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BZ5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CA5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CB5" t="s">
         <v>171</v>
@@ -3336,37 +3342,37 @@
         <v>177</v>
       </c>
       <c r="CG5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="CH5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CI5" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CJ5" t="s">
-        <v>180</v>
+        <v>196</v>
       </c>
       <c r="CK5" t="s">
         <v>166</v>
       </c>
       <c r="CL5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CM5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CN5" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="CO5" t="s">
         <v>166</v>
       </c>
       <c r="CP5" t="s">
-        <v>166</v>
+        <v>184</v>
       </c>
       <c r="CQ5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CR5" t="s">
         <v>166</v>
@@ -3381,13 +3387,13 @@
         <v>180</v>
       </c>
       <c r="CV5" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="CW5" t="s">
         <v>166</v>
       </c>
       <c r="CX5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CY5" t="s">
         <v>162</v>
@@ -3405,13 +3411,13 @@
         <v>161</v>
       </c>
       <c r="DD5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DE5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DF5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DG5" t="s">
         <v>166</v>
@@ -3423,7 +3429,7 @@
         <v>166</v>
       </c>
       <c r="DJ5" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DK5" t="s">
         <v>166</v>
@@ -3519,7 +3525,7 @@
         <v>166</v>
       </c>
       <c r="EP5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="EQ5" t="s">
         <v>171</v>
@@ -3534,10 +3540,10 @@
         <v>171</v>
       </c>
       <c r="EU5" t="s">
-        <v>205</v>
+        <v>174</v>
       </c>
       <c r="EV5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="EW5" t="s">
         <v>184</v>
@@ -3554,28 +3560,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="B6" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C6" t="s">
         <v>212</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G6" t="s">
         <v>161</v>
       </c>
       <c r="H6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I6" t="s">
         <v>161</v>
@@ -3605,7 +3611,7 @@
         <v>161</v>
       </c>
       <c r="R6" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="S6" t="s">
         <v>165</v>
@@ -3614,10 +3620,10 @@
         <v>161</v>
       </c>
       <c r="U6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="V6" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="W6" t="s">
         <v>163</v>
@@ -3662,7 +3668,7 @@
         <v>166</v>
       </c>
       <c r="AK6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AL6" t="s">
         <v>171</v>
@@ -3674,16 +3680,16 @@
         <v>180</v>
       </c>
       <c r="AO6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="AP6" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AQ6" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AR6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AS6" t="s">
         <v>161</v>
@@ -3710,10 +3716,10 @@
         <v>166</v>
       </c>
       <c r="BA6" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
       <c r="BB6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BC6" t="s">
         <v>166</v>
@@ -3746,7 +3752,7 @@
         <v>171</v>
       </c>
       <c r="BM6" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="BN6" t="s">
         <v>166</v>
@@ -3764,16 +3770,16 @@
         <v>171</v>
       </c>
       <c r="BS6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BT6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BU6" t="s">
         <v>161</v>
       </c>
       <c r="BV6" t="s">
-        <v>173</v>
+        <v>215</v>
       </c>
       <c r="BW6" t="s">
         <v>166</v>
@@ -3782,13 +3788,13 @@
         <v>166</v>
       </c>
       <c r="BY6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BZ6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CA6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CB6" t="s">
         <v>171</v>
@@ -3809,34 +3815,34 @@
         <v>216</v>
       </c>
       <c r="CH6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CI6" t="s">
+        <v>179</v>
+      </c>
+      <c r="CJ6" t="s">
         <v>180</v>
       </c>
-      <c r="CJ6" t="s">
-        <v>196</v>
-      </c>
       <c r="CK6" t="s">
         <v>166</v>
       </c>
       <c r="CL6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CM6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CN6" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="CO6" t="s">
         <v>166</v>
       </c>
       <c r="CP6" t="s">
-        <v>184</v>
+        <v>166</v>
       </c>
       <c r="CQ6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CR6" t="s">
         <v>166</v>
@@ -3851,13 +3857,13 @@
         <v>180</v>
       </c>
       <c r="CV6" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="CW6" t="s">
         <v>166</v>
       </c>
       <c r="CX6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CY6" t="s">
         <v>162</v>
@@ -3875,13 +3881,13 @@
         <v>161</v>
       </c>
       <c r="DD6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DE6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DF6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DG6" t="s">
         <v>166</v>
@@ -3893,7 +3899,7 @@
         <v>166</v>
       </c>
       <c r="DJ6" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DK6" t="s">
         <v>166</v>
@@ -3989,7 +3995,7 @@
         <v>166</v>
       </c>
       <c r="EP6" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="EQ6" t="s">
         <v>171</v>
@@ -4004,7 +4010,7 @@
         <v>171</v>
       </c>
       <c r="EU6" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="EV6" t="s">
         <v>217</v>
@@ -4030,7 +4036,7 @@
         <v>157</v>
       </c>
       <c r="C7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D7" t="s">
         <v>166</v>
@@ -5087,7 +5093,7 @@
         <v>198</v>
       </c>
       <c r="AP9" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="AQ9" t="s">
         <v>199</v>
@@ -6377,7 +6383,7 @@
         <v>246</v>
       </c>
       <c r="B12" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C12" t="s">
         <v>247</v>
@@ -6389,7 +6395,7 @@
         <v>166</v>
       </c>
       <c r="F12" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G12" t="s">
         <v>161</v>
@@ -6413,19 +6419,19 @@
         <v>163</v>
       </c>
       <c r="N12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O12" t="s">
         <v>163</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Q12" t="s">
         <v>161</v>
       </c>
       <c r="R12" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S12" t="s">
         <v>165</v>
@@ -6437,16 +6443,16 @@
         <v>171</v>
       </c>
       <c r="V12" t="s">
-        <v>243</v>
+        <v>188</v>
       </c>
       <c r="W12" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X12" t="s">
         <v>161</v>
       </c>
       <c r="Y12" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="Z12" t="s">
         <v>163</v>
@@ -6467,7 +6473,7 @@
         <v>166</v>
       </c>
       <c r="AF12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AG12" t="s">
         <v>171</v>
@@ -6485,7 +6491,7 @@
         <v>161</v>
       </c>
       <c r="AL12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM12" t="s">
         <v>171</v>
@@ -6515,7 +6521,7 @@
         <v>161</v>
       </c>
       <c r="AV12" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AW12" t="s">
         <v>170</v>
@@ -6536,7 +6542,7 @@
         <v>166</v>
       </c>
       <c r="BC12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BD12" t="s">
         <v>163</v>
@@ -6557,7 +6563,7 @@
         <v>166</v>
       </c>
       <c r="BJ12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BK12" t="s">
         <v>166</v>
@@ -6572,13 +6578,13 @@
         <v>171</v>
       </c>
       <c r="BO12" t="s">
-        <v>161</v>
+        <v>175</v>
       </c>
       <c r="BP12" t="s">
         <v>175</v>
       </c>
       <c r="BQ12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BR12" t="s">
         <v>171</v>
@@ -6590,7 +6596,7 @@
         <v>166</v>
       </c>
       <c r="BU12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="BV12" t="s">
         <v>173</v>
@@ -6626,10 +6632,10 @@
         <v>177</v>
       </c>
       <c r="CG12" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="CH12" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CI12" t="s">
         <v>179</v>
@@ -6641,13 +6647,13 @@
         <v>166</v>
       </c>
       <c r="CL12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CM12" t="s">
         <v>166</v>
       </c>
       <c r="CN12" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="CO12" t="s">
         <v>166</v>
@@ -6662,7 +6668,7 @@
         <v>166</v>
       </c>
       <c r="CS12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CT12" t="s">
         <v>171</v>
@@ -6689,7 +6695,7 @@
         <v>162</v>
       </c>
       <c r="DB12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DC12" t="s">
         <v>161</v>
@@ -6773,7 +6779,7 @@
         <v>171</v>
       </c>
       <c r="ED12" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="EE12" t="s">
         <v>166</v>
@@ -6827,7 +6833,7 @@
         <v>246</v>
       </c>
       <c r="EV12" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="EW12" t="s">
         <v>184</v>
@@ -6844,13 +6850,13 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C13" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D13" t="s">
         <v>166</v>
@@ -6859,7 +6865,7 @@
         <v>166</v>
       </c>
       <c r="F13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G13" t="s">
         <v>161</v>
@@ -6883,19 +6889,19 @@
         <v>163</v>
       </c>
       <c r="N13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="O13" t="s">
         <v>163</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q13" t="s">
         <v>161</v>
       </c>
       <c r="R13" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="S13" t="s">
         <v>165</v>
@@ -6907,16 +6913,16 @@
         <v>171</v>
       </c>
       <c r="V13" t="s">
-        <v>188</v>
+        <v>243</v>
       </c>
       <c r="W13" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X13" t="s">
         <v>161</v>
       </c>
       <c r="Y13" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="Z13" t="s">
         <v>163</v>
@@ -6925,7 +6931,7 @@
         <v>163</v>
       </c>
       <c r="AB13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AC13" t="s">
         <v>169</v>
@@ -6937,7 +6943,7 @@
         <v>166</v>
       </c>
       <c r="AF13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s">
         <v>171</v>
@@ -6985,7 +6991,7 @@
         <v>161</v>
       </c>
       <c r="AV13" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AW13" t="s">
         <v>170</v>
@@ -7006,7 +7012,7 @@
         <v>166</v>
       </c>
       <c r="BC13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BD13" t="s">
         <v>163</v>
@@ -7027,7 +7033,7 @@
         <v>166</v>
       </c>
       <c r="BJ13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BK13" t="s">
         <v>166</v>
@@ -7042,13 +7048,13 @@
         <v>171</v>
       </c>
       <c r="BO13" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="BP13" t="s">
         <v>175</v>
       </c>
       <c r="BQ13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BR13" t="s">
         <v>171</v>
@@ -7060,7 +7066,7 @@
         <v>166</v>
       </c>
       <c r="BU13" t="s">
-        <v>161</v>
+        <v>201</v>
       </c>
       <c r="BV13" t="s">
         <v>173</v>
@@ -7096,10 +7102,10 @@
         <v>177</v>
       </c>
       <c r="CG13" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="CH13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CI13" t="s">
         <v>179</v>
@@ -7111,13 +7117,13 @@
         <v>166</v>
       </c>
       <c r="CL13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CM13" t="s">
         <v>166</v>
       </c>
       <c r="CN13" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="CO13" t="s">
         <v>166</v>
@@ -7132,7 +7138,7 @@
         <v>166</v>
       </c>
       <c r="CS13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CT13" t="s">
         <v>171</v>
@@ -7159,7 +7165,7 @@
         <v>162</v>
       </c>
       <c r="DB13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DC13" t="s">
         <v>161</v>
@@ -7243,7 +7249,7 @@
         <v>171</v>
       </c>
       <c r="ED13" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="EE13" t="s">
         <v>166</v>
@@ -7294,10 +7300,10 @@
         <v>171</v>
       </c>
       <c r="EU13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="EV13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="EW13" t="s">
         <v>184</v>
@@ -7314,13 +7320,13 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B14" t="s">
         <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D14" t="s">
         <v>166</v>
@@ -7395,7 +7401,7 @@
         <v>163</v>
       </c>
       <c r="AB14" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AC14" t="s">
         <v>169</v>
@@ -7566,7 +7572,7 @@
         <v>177</v>
       </c>
       <c r="CG14" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="CH14" t="s">
         <v>166</v>
@@ -7764,10 +7770,10 @@
         <v>171</v>
       </c>
       <c r="EU14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="EV14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="EW14" t="s">
         <v>184</v>
@@ -7784,13 +7790,13 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B15" t="s">
         <v>157</v>
       </c>
       <c r="C15" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D15" t="s">
         <v>166</v>
@@ -7865,7 +7871,7 @@
         <v>163</v>
       </c>
       <c r="AB15" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AC15" t="s">
         <v>169</v>
@@ -8036,7 +8042,7 @@
         <v>177</v>
       </c>
       <c r="CG15" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="CH15" t="s">
         <v>166</v>
@@ -8234,10 +8240,10 @@
         <v>171</v>
       </c>
       <c r="EU15" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="EV15" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="EW15" t="s">
         <v>184</v>
@@ -8254,13 +8260,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B16" t="s">
         <v>162</v>
       </c>
       <c r="C16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D16" t="s">
         <v>166</v>
@@ -8335,7 +8341,7 @@
         <v>163</v>
       </c>
       <c r="AB16" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="AC16" t="s">
         <v>169</v>
@@ -8506,7 +8512,7 @@
         <v>177</v>
       </c>
       <c r="CG16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="CH16" t="s">
         <v>166</v>
@@ -8704,10 +8710,10 @@
         <v>171</v>
       </c>
       <c r="EU16" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="EV16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="EW16" t="s">
         <v>184</v>
@@ -8719,18 +8725,18 @@
         <v>166</v>
       </c>
       <c r="EZ16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B17" t="s">
         <v>157</v>
       </c>
       <c r="C17" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="D17" t="s">
         <v>159</v>
@@ -8805,7 +8811,7 @@
         <v>163</v>
       </c>
       <c r="AB17" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AC17" t="s">
         <v>169</v>
@@ -8976,7 +8982,7 @@
         <v>177</v>
       </c>
       <c r="CG17" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="CH17" t="s">
         <v>166</v>
@@ -9174,10 +9180,10 @@
         <v>171</v>
       </c>
       <c r="EU17" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="EV17" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="EW17" t="s">
         <v>184</v>
@@ -9194,13 +9200,13 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B18" t="s">
         <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="D18" t="s">
         <v>196</v>
@@ -9275,7 +9281,7 @@
         <v>163</v>
       </c>
       <c r="AB18" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AC18" t="s">
         <v>169</v>
@@ -9314,7 +9320,7 @@
         <v>180</v>
       </c>
       <c r="AO18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AP18" t="s">
         <v>173</v>
@@ -9413,7 +9419,7 @@
         <v>161</v>
       </c>
       <c r="BV18" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BW18" t="s">
         <v>166</v>
@@ -9446,7 +9452,7 @@
         <v>177</v>
       </c>
       <c r="CG18" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="CH18" t="s">
         <v>166</v>
@@ -9644,10 +9650,10 @@
         <v>171</v>
       </c>
       <c r="EU18" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="EV18" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="EW18" t="s">
         <v>184</v>
@@ -9664,13 +9670,13 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B19" t="s">
         <v>157</v>
       </c>
       <c r="C19" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D19" t="s">
         <v>166</v>
@@ -9745,7 +9751,7 @@
         <v>163</v>
       </c>
       <c r="AB19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="AC19" t="s">
         <v>169</v>
@@ -9916,7 +9922,7 @@
         <v>177</v>
       </c>
       <c r="CG19" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="CH19" t="s">
         <v>171</v>
@@ -10114,10 +10120,10 @@
         <v>171</v>
       </c>
       <c r="EU19" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="EV19" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="EW19" t="s">
         <v>184</v>
@@ -10134,13 +10140,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B20" t="s">
         <v>157</v>
       </c>
       <c r="C20" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D20" t="s">
         <v>166</v>
@@ -10197,7 +10203,7 @@
         <v>166</v>
       </c>
       <c r="V20" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="W20" t="s">
         <v>163</v>
@@ -10215,7 +10221,7 @@
         <v>163</v>
       </c>
       <c r="AB20" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AC20" t="s">
         <v>169</v>
@@ -10254,7 +10260,7 @@
         <v>180</v>
       </c>
       <c r="AO20" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AP20" t="s">
         <v>182</v>
@@ -10386,7 +10392,7 @@
         <v>177</v>
       </c>
       <c r="CG20" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="CH20" t="s">
         <v>166</v>
@@ -10548,7 +10554,7 @@
         <v>180</v>
       </c>
       <c r="EI20" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="EJ20" t="s">
         <v>166</v>
@@ -10584,10 +10590,10 @@
         <v>171</v>
       </c>
       <c r="EU20" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="EV20" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="EW20" t="s">
         <v>184</v>
@@ -10604,13 +10610,13 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="B21" t="s">
         <v>157</v>
       </c>
       <c r="C21" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="D21" t="s">
         <v>159</v>
@@ -10685,7 +10691,7 @@
         <v>163</v>
       </c>
       <c r="AB21" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="AC21" t="s">
         <v>169</v>
@@ -10856,7 +10862,7 @@
         <v>177</v>
       </c>
       <c r="CG21" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="CH21" t="s">
         <v>166</v>
@@ -11054,10 +11060,10 @@
         <v>171</v>
       </c>
       <c r="EU21" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="EV21" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="EW21" t="s">
         <v>184</v>
@@ -11074,13 +11080,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B22" t="s">
         <v>157</v>
       </c>
       <c r="C22" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="D22" t="s">
         <v>166</v>
@@ -11155,7 +11161,7 @@
         <v>163</v>
       </c>
       <c r="AB22" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AC22" t="s">
         <v>169</v>
@@ -11227,7 +11233,7 @@
         <v>171</v>
       </c>
       <c r="AZ22" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="BA22" t="s">
         <v>161</v>
@@ -11326,7 +11332,7 @@
         <v>177</v>
       </c>
       <c r="CG22" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="CH22" t="s">
         <v>166</v>
@@ -11524,10 +11530,10 @@
         <v>171</v>
       </c>
       <c r="EU22" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="EV22" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="EW22" t="s">
         <v>184</v>
@@ -11544,13 +11550,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B23" t="s">
         <v>157</v>
       </c>
       <c r="C23" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D23" t="s">
         <v>166</v>
@@ -11742,7 +11748,7 @@
         <v>166</v>
       </c>
       <c r="BO23" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="BP23" t="s">
         <v>175</v>
@@ -11994,10 +12000,10 @@
         <v>171</v>
       </c>
       <c r="EU23" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="EV23" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="EW23" t="s">
         <v>184</v>
@@ -12014,13 +12020,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B24" t="s">
         <v>162</v>
       </c>
       <c r="C24" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D24" t="s">
         <v>159</v>
@@ -12095,7 +12101,7 @@
         <v>163</v>
       </c>
       <c r="AB24" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AC24" t="s">
         <v>169</v>
@@ -12266,7 +12272,7 @@
         <v>177</v>
       </c>
       <c r="CG24" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="CH24" t="s">
         <v>166</v>
@@ -12464,10 +12470,10 @@
         <v>171</v>
       </c>
       <c r="EU24" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="EV24" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="EW24" t="s">
         <v>184</v>
@@ -12484,16 +12490,16 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B25" t="s">
         <v>157</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>266</v>
       </c>
       <c r="D25" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="E25" t="s">
         <v>166</v>
@@ -12508,7 +12514,7 @@
         <v>161</v>
       </c>
       <c r="I25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J25" t="s">
         <v>161</v>
@@ -12523,19 +12529,19 @@
         <v>163</v>
       </c>
       <c r="N25" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="O25" t="s">
         <v>163</v>
       </c>
       <c r="P25" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="Q25" t="s">
         <v>161</v>
       </c>
       <c r="R25" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="S25" t="s">
         <v>165</v>
@@ -12544,7 +12550,7 @@
         <v>161</v>
       </c>
       <c r="U25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="V25" t="s">
         <v>161</v>
@@ -12556,7 +12562,7 @@
         <v>163</v>
       </c>
       <c r="Y25" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="Z25" t="s">
         <v>163</v>
@@ -12565,7 +12571,7 @@
         <v>163</v>
       </c>
       <c r="AB25" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AC25" t="s">
         <v>169</v>
@@ -12592,31 +12598,31 @@
         <v>166</v>
       </c>
       <c r="AK25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AL25" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s">
         <v>171</v>
       </c>
       <c r="AN25" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="AO25" t="s">
-        <v>312</v>
+        <v>182</v>
       </c>
       <c r="AP25" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="AQ25" t="s">
-        <v>243</v>
+        <v>173</v>
       </c>
       <c r="AR25" t="s">
         <v>163</v>
       </c>
       <c r="AS25" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AT25" t="s">
         <v>171</v>
@@ -12625,7 +12631,7 @@
         <v>161</v>
       </c>
       <c r="AV25" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AW25" t="s">
         <v>170</v>
@@ -12637,7 +12643,7 @@
         <v>171</v>
       </c>
       <c r="AZ25" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="BA25" t="s">
         <v>161</v>
@@ -12679,10 +12685,10 @@
         <v>161</v>
       </c>
       <c r="BN25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BO25" t="s">
-        <v>161</v>
+        <v>244</v>
       </c>
       <c r="BP25" t="s">
         <v>175</v>
@@ -12694,13 +12700,13 @@
         <v>171</v>
       </c>
       <c r="BS25" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="BT25" t="s">
         <v>166</v>
       </c>
       <c r="BU25" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="BV25" t="s">
         <v>173</v>
@@ -12736,7 +12742,7 @@
         <v>177</v>
       </c>
       <c r="CG25" t="s">
-        <v>237</v>
+        <v>313</v>
       </c>
       <c r="CH25" t="s">
         <v>166</v>
@@ -12823,13 +12829,13 @@
         <v>166</v>
       </c>
       <c r="DJ25" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DK25" t="s">
         <v>166</v>
       </c>
       <c r="DL25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DM25" t="s">
         <v>166</v>
@@ -12859,7 +12865,7 @@
         <v>166</v>
       </c>
       <c r="DV25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DW25" t="s">
         <v>180</v>
@@ -12928,16 +12934,16 @@
         <v>170</v>
       </c>
       <c r="ES25" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="ET25" t="s">
         <v>171</v>
       </c>
       <c r="EU25" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="EV25" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="EW25" t="s">
         <v>184</v>
@@ -12954,25 +12960,25 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="B26" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="C26" t="s">
-        <v>265</v>
+        <v>316</v>
       </c>
       <c r="D26" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G26" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
         <v>161</v>
@@ -12993,19 +12999,19 @@
         <v>163</v>
       </c>
       <c r="N26" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="O26" t="s">
         <v>163</v>
       </c>
       <c r="P26" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="Q26" t="s">
         <v>161</v>
       </c>
       <c r="R26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="S26" t="s">
         <v>165</v>
@@ -13014,19 +13020,19 @@
         <v>161</v>
       </c>
       <c r="U26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="V26" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="W26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="X26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y26" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="Z26" t="s">
         <v>163</v>
@@ -13035,7 +13041,7 @@
         <v>163</v>
       </c>
       <c r="AB26" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AC26" t="s">
         <v>169</v>
@@ -13065,7 +13071,7 @@
         <v>161</v>
       </c>
       <c r="AL26" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM26" t="s">
         <v>171</v>
@@ -13074,16 +13080,16 @@
         <v>180</v>
       </c>
       <c r="AO26" t="s">
-        <v>182</v>
+        <v>198</v>
       </c>
       <c r="AP26" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AQ26" t="s">
-        <v>173</v>
+        <v>199</v>
       </c>
       <c r="AR26" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AS26" t="s">
         <v>161</v>
@@ -13095,7 +13101,7 @@
         <v>161</v>
       </c>
       <c r="AV26" t="s">
-        <v>192</v>
+        <v>159</v>
       </c>
       <c r="AW26" t="s">
         <v>170</v>
@@ -13107,7 +13113,7 @@
         <v>171</v>
       </c>
       <c r="AZ26" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="BA26" t="s">
         <v>161</v>
@@ -13116,7 +13122,7 @@
         <v>166</v>
       </c>
       <c r="BC26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BD26" t="s">
         <v>163</v>
@@ -13152,25 +13158,25 @@
         <v>166</v>
       </c>
       <c r="BO26" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="BP26" t="s">
         <v>175</v>
       </c>
       <c r="BQ26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BR26" t="s">
         <v>171</v>
       </c>
       <c r="BS26" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BT26" t="s">
         <v>166</v>
       </c>
       <c r="BU26" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="BV26" t="s">
         <v>173</v>
@@ -13206,7 +13212,7 @@
         <v>177</v>
       </c>
       <c r="CG26" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="CH26" t="s">
         <v>166</v>
@@ -13293,7 +13299,7 @@
         <v>166</v>
       </c>
       <c r="DJ26" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DK26" t="s">
         <v>166</v>
@@ -13329,7 +13335,7 @@
         <v>166</v>
       </c>
       <c r="DV26" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DW26" t="s">
         <v>180</v>
@@ -13404,10 +13410,10 @@
         <v>171</v>
       </c>
       <c r="EU26" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="EV26" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="EW26" t="s">
         <v>184</v>
@@ -13424,28 +13430,28 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B27" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C27" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="D27" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="E27" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F27" t="s">
         <v>163</v>
       </c>
       <c r="G27" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I27" t="s">
         <v>161</v>
@@ -13475,7 +13481,7 @@
         <v>161</v>
       </c>
       <c r="R27" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="S27" t="s">
         <v>165</v>
@@ -13484,19 +13490,19 @@
         <v>161</v>
       </c>
       <c r="U27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="V27" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="W27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="X27" t="s">
         <v>161</v>
       </c>
       <c r="Y27" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="Z27" t="s">
         <v>163</v>
@@ -13505,7 +13511,7 @@
         <v>163</v>
       </c>
       <c r="AB27" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AC27" t="s">
         <v>169</v>
@@ -13514,7 +13520,7 @@
         <v>170</v>
       </c>
       <c r="AE27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AF27" t="s">
         <v>171</v>
@@ -13547,22 +13553,22 @@
         <v>198</v>
       </c>
       <c r="AP27" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="AQ27" t="s">
-        <v>199</v>
+        <v>323</v>
       </c>
       <c r="AR27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AS27" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT27" t="s">
         <v>171</v>
       </c>
       <c r="AU27" t="s">
-        <v>161</v>
+        <v>207</v>
       </c>
       <c r="AV27" t="s">
         <v>159</v>
@@ -13586,7 +13592,7 @@
         <v>166</v>
       </c>
       <c r="BC27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BD27" t="s">
         <v>163</v>
@@ -13619,22 +13625,22 @@
         <v>161</v>
       </c>
       <c r="BN27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BO27" t="s">
-        <v>176</v>
+        <v>201</v>
       </c>
       <c r="BP27" t="s">
         <v>175</v>
       </c>
       <c r="BQ27" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BR27" t="s">
         <v>171</v>
       </c>
       <c r="BS27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BT27" t="s">
         <v>166</v>
@@ -13664,7 +13670,7 @@
         <v>171</v>
       </c>
       <c r="CC27" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CD27" t="s">
         <v>171</v>
@@ -13676,7 +13682,7 @@
         <v>177</v>
       </c>
       <c r="CG27" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="CH27" t="s">
         <v>166</v>
@@ -13874,10 +13880,10 @@
         <v>171</v>
       </c>
       <c r="EU27" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="EV27" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="EW27" t="s">
         <v>184</v>
@@ -13894,28 +13900,28 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B28" t="s">
         <v>157</v>
       </c>
       <c r="C28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D28" t="s">
         <v>166</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G28" t="s">
         <v>161</v>
       </c>
       <c r="H28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I28" t="s">
         <v>161</v>
@@ -13945,7 +13951,7 @@
         <v>161</v>
       </c>
       <c r="R28" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S28" t="s">
         <v>165</v>
@@ -13966,7 +13972,7 @@
         <v>161</v>
       </c>
       <c r="Y28" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="Z28" t="s">
         <v>163</v>
@@ -13975,7 +13981,7 @@
         <v>163</v>
       </c>
       <c r="AB28" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AC28" t="s">
         <v>169</v>
@@ -13984,7 +13990,7 @@
         <v>170</v>
       </c>
       <c r="AE28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AF28" t="s">
         <v>171</v>
@@ -14014,13 +14020,13 @@
         <v>180</v>
       </c>
       <c r="AO28" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="AP28" t="s">
         <v>173</v>
       </c>
       <c r="AQ28" t="s">
-        <v>326</v>
+        <v>173</v>
       </c>
       <c r="AR28" t="s">
         <v>163</v>
@@ -14032,7 +14038,7 @@
         <v>171</v>
       </c>
       <c r="AU28" t="s">
-        <v>214</v>
+        <v>161</v>
       </c>
       <c r="AV28" t="s">
         <v>159</v>
@@ -14044,7 +14050,7 @@
         <v>166</v>
       </c>
       <c r="AY28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AZ28" t="s">
         <v>166</v>
@@ -14089,22 +14095,22 @@
         <v>161</v>
       </c>
       <c r="BN28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BO28" t="s">
-        <v>201</v>
+        <v>161</v>
       </c>
       <c r="BP28" t="s">
         <v>175</v>
       </c>
       <c r="BQ28" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BR28" t="s">
         <v>171</v>
       </c>
       <c r="BS28" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="BT28" t="s">
         <v>166</v>
@@ -14134,7 +14140,7 @@
         <v>171</v>
       </c>
       <c r="CC28" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CD28" t="s">
         <v>171</v>
@@ -14146,7 +14152,7 @@
         <v>177</v>
       </c>
       <c r="CG28" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="CH28" t="s">
         <v>166</v>
@@ -14344,10 +14350,10 @@
         <v>171</v>
       </c>
       <c r="EU28" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="EV28" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="EW28" t="s">
         <v>184</v>
@@ -14364,28 +14370,28 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B29" t="s">
         <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D29" t="s">
         <v>166</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F29" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I29" t="s">
         <v>161</v>
@@ -14436,7 +14442,7 @@
         <v>161</v>
       </c>
       <c r="Y29" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="Z29" t="s">
         <v>163</v>
@@ -14445,7 +14451,7 @@
         <v>163</v>
       </c>
       <c r="AB29" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AC29" t="s">
         <v>169</v>
@@ -14484,7 +14490,7 @@
         <v>180</v>
       </c>
       <c r="AO29" t="s">
-        <v>173</v>
+        <v>323</v>
       </c>
       <c r="AP29" t="s">
         <v>173</v>
@@ -14505,7 +14511,7 @@
         <v>161</v>
       </c>
       <c r="AV29" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AW29" t="s">
         <v>170</v>
@@ -14529,7 +14535,7 @@
         <v>166</v>
       </c>
       <c r="BD29" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BE29" t="s">
         <v>166</v>
@@ -14562,7 +14568,7 @@
         <v>166</v>
       </c>
       <c r="BO29" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="BP29" t="s">
         <v>175</v>
@@ -14574,7 +14580,7 @@
         <v>171</v>
       </c>
       <c r="BS29" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BT29" t="s">
         <v>166</v>
@@ -14616,7 +14622,7 @@
         <v>177</v>
       </c>
       <c r="CG29" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="CH29" t="s">
         <v>166</v>
@@ -14814,10 +14820,10 @@
         <v>171</v>
       </c>
       <c r="EU29" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="EV29" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="EW29" t="s">
         <v>184</v>
@@ -14834,28 +14840,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B30" t="s">
         <v>157</v>
       </c>
       <c r="C30" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D30" t="s">
         <v>166</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F30" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="G30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
         <v>161</v>
@@ -14885,7 +14891,7 @@
         <v>161</v>
       </c>
       <c r="R30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S30" t="s">
         <v>165</v>
@@ -14903,7 +14909,7 @@
         <v>163</v>
       </c>
       <c r="X30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y30" t="s">
         <v>167</v>
@@ -14915,7 +14921,7 @@
         <v>163</v>
       </c>
       <c r="AB30" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AC30" t="s">
         <v>169</v>
@@ -14951,10 +14957,10 @@
         <v>171</v>
       </c>
       <c r="AN30" t="s">
-        <v>180</v>
+        <v>166</v>
       </c>
       <c r="AO30" t="s">
-        <v>326</v>
+        <v>163</v>
       </c>
       <c r="AP30" t="s">
         <v>173</v>
@@ -14975,7 +14981,7 @@
         <v>161</v>
       </c>
       <c r="AV30" t="s">
-        <v>164</v>
+        <v>192</v>
       </c>
       <c r="AW30" t="s">
         <v>170</v>
@@ -14984,10 +14990,10 @@
         <v>166</v>
       </c>
       <c r="AY30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AZ30" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="BA30" t="s">
         <v>161</v>
@@ -14999,7 +15005,7 @@
         <v>166</v>
       </c>
       <c r="BD30" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BE30" t="s">
         <v>166</v>
@@ -15032,19 +15038,19 @@
         <v>166</v>
       </c>
       <c r="BO30" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="BP30" t="s">
         <v>175</v>
       </c>
       <c r="BQ30" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BR30" t="s">
         <v>171</v>
       </c>
       <c r="BS30" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BT30" t="s">
         <v>166</v>
@@ -15086,7 +15092,7 @@
         <v>177</v>
       </c>
       <c r="CG30" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="CH30" t="s">
         <v>166</v>
@@ -15122,7 +15128,7 @@
         <v>166</v>
       </c>
       <c r="CS30" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CT30" t="s">
         <v>171</v>
@@ -15284,10 +15290,10 @@
         <v>171</v>
       </c>
       <c r="EU30" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="EV30" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="EW30" t="s">
         <v>184</v>
@@ -15304,22 +15310,22 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B31" t="s">
         <v>157</v>
       </c>
       <c r="C31" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D31" t="s">
         <v>166</v>
       </c>
       <c r="E31" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G31" t="s">
         <v>161</v>
@@ -15355,7 +15361,7 @@
         <v>161</v>
       </c>
       <c r="R31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="S31" t="s">
         <v>165</v>
@@ -15373,7 +15379,7 @@
         <v>163</v>
       </c>
       <c r="X31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="Y31" t="s">
         <v>167</v>
@@ -15385,7 +15391,7 @@
         <v>163</v>
       </c>
       <c r="AB31" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AC31" t="s">
         <v>169</v>
@@ -15421,10 +15427,10 @@
         <v>171</v>
       </c>
       <c r="AN31" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="AO31" t="s">
-        <v>163</v>
+        <v>198</v>
       </c>
       <c r="AP31" t="s">
         <v>173</v>
@@ -15445,7 +15451,7 @@
         <v>161</v>
       </c>
       <c r="AV31" t="s">
-        <v>192</v>
+        <v>164</v>
       </c>
       <c r="AW31" t="s">
         <v>170</v>
@@ -15457,7 +15463,7 @@
         <v>171</v>
       </c>
       <c r="AZ31" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="BA31" t="s">
         <v>161</v>
@@ -15472,13 +15478,13 @@
         <v>163</v>
       </c>
       <c r="BE31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BF31" t="s">
         <v>166</v>
       </c>
       <c r="BG31" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BH31" t="s">
         <v>166</v>
@@ -15502,7 +15508,7 @@
         <v>166</v>
       </c>
       <c r="BO31" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="BP31" t="s">
         <v>175</v>
@@ -15514,7 +15520,7 @@
         <v>171</v>
       </c>
       <c r="BS31" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BT31" t="s">
         <v>166</v>
@@ -15556,7 +15562,7 @@
         <v>177</v>
       </c>
       <c r="CG31" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="CH31" t="s">
         <v>166</v>
@@ -15592,7 +15598,7 @@
         <v>166</v>
       </c>
       <c r="CS31" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CT31" t="s">
         <v>171</v>
@@ -15754,10 +15760,10 @@
         <v>171</v>
       </c>
       <c r="EU31" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="EV31" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="EW31" t="s">
         <v>184</v>
@@ -15774,28 +15780,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B32" t="s">
         <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="D32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="F32" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
         <v>161</v>
@@ -15813,19 +15819,19 @@
         <v>163</v>
       </c>
       <c r="N32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="O32" t="s">
         <v>163</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q32" t="s">
         <v>161</v>
       </c>
       <c r="R32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="S32" t="s">
         <v>165</v>
@@ -15834,7 +15840,7 @@
         <v>161</v>
       </c>
       <c r="U32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="V32" t="s">
         <v>161</v>
@@ -15846,7 +15852,7 @@
         <v>161</v>
       </c>
       <c r="Y32" t="s">
-        <v>167</v>
+        <v>189</v>
       </c>
       <c r="Z32" t="s">
         <v>163</v>
@@ -15855,7 +15861,7 @@
         <v>163</v>
       </c>
       <c r="AB32" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AC32" t="s">
         <v>169</v>
@@ -15867,7 +15873,7 @@
         <v>171</v>
       </c>
       <c r="AF32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AG32" t="s">
         <v>171</v>
@@ -15882,7 +15888,7 @@
         <v>166</v>
       </c>
       <c r="AK32" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL32" t="s">
         <v>170</v>
@@ -15894,19 +15900,19 @@
         <v>180</v>
       </c>
       <c r="AO32" t="s">
-        <v>198</v>
+        <v>161</v>
       </c>
       <c r="AP32" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AQ32" t="s">
         <v>173</v>
       </c>
       <c r="AR32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AS32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AT32" t="s">
         <v>171</v>
@@ -15939,16 +15945,16 @@
         <v>166</v>
       </c>
       <c r="BD32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BE32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BF32" t="s">
         <v>166</v>
       </c>
       <c r="BG32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BH32" t="s">
         <v>166</v>
@@ -15957,10 +15963,10 @@
         <v>166</v>
       </c>
       <c r="BJ32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BK32" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BL32" t="s">
         <v>171</v>
@@ -15972,7 +15978,7 @@
         <v>166</v>
       </c>
       <c r="BO32" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="BP32" t="s">
         <v>175</v>
@@ -16026,10 +16032,10 @@
         <v>177</v>
       </c>
       <c r="CG32" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="CH32" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CI32" t="s">
         <v>179</v>
@@ -16062,7 +16068,7 @@
         <v>166</v>
       </c>
       <c r="CS32" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="CT32" t="s">
         <v>171</v>
@@ -16224,10 +16230,10 @@
         <v>171</v>
       </c>
       <c r="EU32" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="EV32" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="EW32" t="s">
         <v>184</v>
@@ -16244,25 +16250,25 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B33" t="s">
         <v>157</v>
       </c>
       <c r="C33" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D33" t="s">
         <v>159</v>
       </c>
       <c r="E33" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="F33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H33" t="s">
         <v>163</v>
@@ -16283,13 +16289,13 @@
         <v>163</v>
       </c>
       <c r="N33" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="O33" t="s">
         <v>163</v>
       </c>
       <c r="P33" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="Q33" t="s">
         <v>161</v>
@@ -16304,7 +16310,7 @@
         <v>161</v>
       </c>
       <c r="U33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="V33" t="s">
         <v>161</v>
@@ -16325,7 +16331,7 @@
         <v>163</v>
       </c>
       <c r="AB33" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AC33" t="s">
         <v>169</v>
@@ -16337,7 +16343,7 @@
         <v>171</v>
       </c>
       <c r="AF33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AG33" t="s">
         <v>171</v>
@@ -16352,7 +16358,7 @@
         <v>166</v>
       </c>
       <c r="AK33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="AL33" t="s">
         <v>170</v>
@@ -16364,13 +16370,13 @@
         <v>180</v>
       </c>
       <c r="AO33" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="AP33" t="s">
         <v>161</v>
       </c>
       <c r="AQ33" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
       <c r="AR33" t="s">
         <v>161</v>
@@ -16385,7 +16391,7 @@
         <v>161</v>
       </c>
       <c r="AV33" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AW33" t="s">
         <v>170</v>
@@ -16403,10 +16409,10 @@
         <v>161</v>
       </c>
       <c r="BB33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BC33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BD33" t="s">
         <v>161</v>
@@ -16427,10 +16433,10 @@
         <v>166</v>
       </c>
       <c r="BJ33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BK33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BL33" t="s">
         <v>171</v>
@@ -16439,7 +16445,7 @@
         <v>161</v>
       </c>
       <c r="BN33" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BO33" t="s">
         <v>161</v>
@@ -16454,7 +16460,7 @@
         <v>171</v>
       </c>
       <c r="BS33" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="BT33" t="s">
         <v>166</v>
@@ -16496,10 +16502,10 @@
         <v>177</v>
       </c>
       <c r="CG33" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="CH33" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CI33" t="s">
         <v>179</v>
@@ -16532,7 +16538,7 @@
         <v>166</v>
       </c>
       <c r="CS33" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="CT33" t="s">
         <v>171</v>
@@ -16694,10 +16700,10 @@
         <v>171</v>
       </c>
       <c r="EU33" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="EV33" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="EW33" t="s">
         <v>184</v>
@@ -16714,25 +16720,25 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="B34" t="s">
         <v>157</v>
       </c>
       <c r="C34" t="s">
-        <v>355</v>
+        <v>212</v>
       </c>
       <c r="D34" t="s">
         <v>159</v>
       </c>
       <c r="E34" t="s">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="F34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H34" t="s">
         <v>163</v>
@@ -16753,13 +16759,13 @@
         <v>163</v>
       </c>
       <c r="N34" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="O34" t="s">
         <v>163</v>
       </c>
       <c r="P34" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="Q34" t="s">
         <v>161</v>
@@ -16774,16 +16780,16 @@
         <v>161</v>
       </c>
       <c r="U34" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="V34" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="W34" t="s">
         <v>163</v>
       </c>
       <c r="X34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Y34" t="s">
         <v>189</v>
@@ -16795,7 +16801,7 @@
         <v>163</v>
       </c>
       <c r="AB34" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="AC34" t="s">
         <v>169</v>
@@ -16807,7 +16813,7 @@
         <v>171</v>
       </c>
       <c r="AF34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AG34" t="s">
         <v>171</v>
@@ -16825,7 +16831,7 @@
         <v>161</v>
       </c>
       <c r="AL34" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM34" t="s">
         <v>171</v>
@@ -16834,16 +16840,16 @@
         <v>180</v>
       </c>
       <c r="AO34" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AP34" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AQ34" t="s">
-        <v>161</v>
+        <v>173</v>
       </c>
       <c r="AR34" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AS34" t="s">
         <v>161</v>
@@ -16855,7 +16861,7 @@
         <v>161</v>
       </c>
       <c r="AV34" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="AW34" t="s">
         <v>170</v>
@@ -16873,10 +16879,10 @@
         <v>161</v>
       </c>
       <c r="BB34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BC34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BD34" t="s">
         <v>161</v>
@@ -16900,16 +16906,16 @@
         <v>166</v>
       </c>
       <c r="BK34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BL34" t="s">
         <v>171</v>
       </c>
       <c r="BM34" t="s">
-        <v>161</v>
+        <v>243</v>
       </c>
       <c r="BN34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BO34" t="s">
         <v>161</v>
@@ -16918,7 +16924,7 @@
         <v>175</v>
       </c>
       <c r="BQ34" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BR34" t="s">
         <v>171</v>
@@ -16951,13 +16957,13 @@
         <v>171</v>
       </c>
       <c r="CB34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CC34" t="s">
         <v>166</v>
       </c>
       <c r="CD34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CE34" t="s">
         <v>166</v>
@@ -16966,13 +16972,13 @@
         <v>177</v>
       </c>
       <c r="CG34" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="CH34" t="s">
         <v>166</v>
       </c>
       <c r="CI34" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="CJ34" t="s">
         <v>180</v>
@@ -17002,7 +17008,7 @@
         <v>166</v>
       </c>
       <c r="CS34" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CT34" t="s">
         <v>171</v>
@@ -17035,13 +17041,13 @@
         <v>161</v>
       </c>
       <c r="DD34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DE34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DF34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DG34" t="s">
         <v>166</v>
@@ -17056,7 +17062,7 @@
         <v>166</v>
       </c>
       <c r="DK34" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DL34" t="s">
         <v>166</v>
@@ -17113,7 +17119,7 @@
         <v>171</v>
       </c>
       <c r="ED34" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="EE34" t="s">
         <v>166</v>
@@ -17152,7 +17158,7 @@
         <v>166</v>
       </c>
       <c r="EQ34" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="ER34" t="s">
         <v>170</v>
@@ -17164,10 +17170,10 @@
         <v>171</v>
       </c>
       <c r="EU34" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="EV34" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="EW34" t="s">
         <v>184</v>
@@ -17184,31 +17190,31 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s">
         <v>157</v>
       </c>
       <c r="C35" t="s">
-        <v>206</v>
+        <v>158</v>
       </c>
       <c r="D35" t="s">
         <v>159</v>
       </c>
       <c r="E35" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="F35" t="s">
         <v>161</v>
       </c>
       <c r="G35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H35" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="I35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="J35" t="s">
         <v>161</v>
@@ -17235,7 +17241,7 @@
         <v>161</v>
       </c>
       <c r="R35" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="S35" t="s">
         <v>165</v>
@@ -17247,7 +17253,7 @@
         <v>171</v>
       </c>
       <c r="V35" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="W35" t="s">
         <v>163</v>
@@ -17265,7 +17271,7 @@
         <v>163</v>
       </c>
       <c r="AB35" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="AC35" t="s">
         <v>169</v>
@@ -17277,7 +17283,7 @@
         <v>171</v>
       </c>
       <c r="AF35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="AG35" t="s">
         <v>171</v>
@@ -17292,31 +17298,31 @@
         <v>166</v>
       </c>
       <c r="AK35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AL35" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AM35" t="s">
         <v>171</v>
       </c>
       <c r="AN35" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="AO35" t="s">
-        <v>201</v>
+        <v>362</v>
       </c>
       <c r="AP35" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="AQ35" t="s">
-        <v>173</v>
+        <v>243</v>
       </c>
       <c r="AR35" t="s">
         <v>163</v>
       </c>
       <c r="AS35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="AT35" t="s">
         <v>171</v>
@@ -17349,7 +17355,7 @@
         <v>166</v>
       </c>
       <c r="BD35" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="BE35" t="s">
         <v>166</v>
@@ -17370,37 +17376,37 @@
         <v>166</v>
       </c>
       <c r="BK35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BL35" t="s">
         <v>171</v>
       </c>
       <c r="BM35" t="s">
-        <v>243</v>
+        <v>161</v>
       </c>
       <c r="BN35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="BO35" t="s">
-        <v>161</v>
+        <v>363</v>
       </c>
       <c r="BP35" t="s">
         <v>175</v>
       </c>
       <c r="BQ35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="BR35" t="s">
         <v>171</v>
       </c>
       <c r="BS35" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BT35" t="s">
         <v>166</v>
       </c>
       <c r="BU35" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
       <c r="BV35" t="s">
         <v>173</v>
@@ -17421,13 +17427,13 @@
         <v>171</v>
       </c>
       <c r="CB35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CC35" t="s">
         <v>166</v>
       </c>
       <c r="CD35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="CE35" t="s">
         <v>166</v>
@@ -17436,13 +17442,13 @@
         <v>177</v>
       </c>
       <c r="CG35" t="s">
-        <v>361</v>
+        <v>237</v>
       </c>
       <c r="CH35" t="s">
         <v>166</v>
       </c>
       <c r="CI35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="CJ35" t="s">
         <v>180</v>
@@ -17472,7 +17478,7 @@
         <v>166</v>
       </c>
       <c r="CS35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="CT35" t="s">
         <v>171</v>
@@ -17505,13 +17511,13 @@
         <v>161</v>
       </c>
       <c r="DD35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DE35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DF35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DG35" t="s">
         <v>166</v>
@@ -17526,10 +17532,10 @@
         <v>166</v>
       </c>
       <c r="DK35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="DL35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="DM35" t="s">
         <v>166</v>
@@ -17583,7 +17589,7 @@
         <v>171</v>
       </c>
       <c r="ED35" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="EE35" t="s">
         <v>166</v>
@@ -17622,22 +17628,22 @@
         <v>166</v>
       </c>
       <c r="EQ35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="ER35" t="s">
         <v>170</v>
       </c>
       <c r="ES35" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="ET35" t="s">
         <v>171</v>
       </c>
       <c r="EU35" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="EV35" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="EW35" t="s">
         <v>184</v>
@@ -17654,7 +17660,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B36" t="s">
         <v>157</v>
@@ -17735,7 +17741,7 @@
         <v>163</v>
       </c>
       <c r="AB36" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AC36" t="s">
         <v>169</v>
@@ -17873,7 +17879,7 @@
         <v>161</v>
       </c>
       <c r="BV36" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="BW36" t="s">
         <v>166</v>
@@ -17903,10 +17909,10 @@
         <v>166</v>
       </c>
       <c r="CF36" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="CG36" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="CH36" t="s">
         <v>166</v>
@@ -18104,10 +18110,10 @@
         <v>171</v>
       </c>
       <c r="EU36" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="EV36" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="EW36" t="s">
         <v>184</v>
@@ -18124,13 +18130,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B37" t="s">
         <v>157</v>
       </c>
       <c r="C37" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="D37" t="s">
         <v>159</v>
@@ -18205,7 +18211,7 @@
         <v>163</v>
       </c>
       <c r="AB37" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="AC37" t="s">
         <v>169</v>
@@ -18244,7 +18250,7 @@
         <v>180</v>
       </c>
       <c r="AO37" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AP37" t="s">
         <v>161</v>
@@ -18376,7 +18382,7 @@
         <v>177</v>
       </c>
       <c r="CG37" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="CH37" t="s">
         <v>166</v>
@@ -18535,7 +18541,7 @@
         <v>166</v>
       </c>
       <c r="EH37" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="EI37" t="s">
         <v>176</v>
@@ -18574,10 +18580,10 @@
         <v>166</v>
       </c>
       <c r="EU37" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="EV37" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="EW37" t="s">
         <v>184</v>
@@ -18594,13 +18600,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B38" t="s">
         <v>157</v>
       </c>
       <c r="C38" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="D38" t="s">
         <v>166</v>
@@ -18675,7 +18681,7 @@
         <v>163</v>
       </c>
       <c r="AB38" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="AC38" t="s">
         <v>169</v>
@@ -18846,7 +18852,7 @@
         <v>177</v>
       </c>
       <c r="CG38" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="CH38" t="s">
         <v>171</v>
@@ -19044,10 +19050,10 @@
         <v>171</v>
       </c>
       <c r="EU38" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="EV38" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="EW38" t="s">
         <v>184</v>
